--- a/inflation.xlsx
+++ b/inflation.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Criterio" sheetId="1" r:id="rId1"/>
+    <sheet name="base 201901" sheetId="1" r:id="rId1"/>
     <sheet name="Ejemplo" sheetId="2" r:id="rId2"/>
+    <sheet name="base 202101" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>inflation</t>
   </si>
@@ -55,7 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +76,19 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -97,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -110,6 +127,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +412,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,7 +449,7 @@
       <c r="A3" s="1">
         <v>43497</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="C3">
@@ -446,7 +465,7 @@
       <c r="A4" s="1">
         <v>43525</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>6.7799999999999999E-2</v>
       </c>
       <c r="C4">
@@ -462,7 +481,7 @@
       <c r="A5" s="1">
         <v>43556</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>0.1177</v>
       </c>
       <c r="C5">
@@ -478,7 +497,7 @@
       <c r="A6" s="1">
         <v>43586</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>0.15629999999999999</v>
       </c>
       <c r="C6">
@@ -494,7 +513,7 @@
       <c r="A7" s="1">
         <v>43617</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>0.1915</v>
       </c>
       <c r="C7">
@@ -510,7 +529,7 @@
       <c r="A8" s="1">
         <v>43647</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>0.22359999999999999</v>
       </c>
       <c r="C8">
@@ -526,7 +545,7 @@
       <c r="A9" s="1">
         <v>43678</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>0.25069999999999998</v>
       </c>
       <c r="C9">
@@ -542,7 +561,7 @@
       <c r="A10" s="1">
         <v>43709</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>0.30009999999999998</v>
       </c>
       <c r="C10">
@@ -558,7 +577,7 @@
       <c r="A11" s="1">
         <v>43739</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>0.37659999999999999</v>
       </c>
       <c r="C11">
@@ -574,7 +593,7 @@
       <c r="A12" s="1">
         <v>43770</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="8">
         <v>0.42209999999999998</v>
       </c>
       <c r="C12">
@@ -590,7 +609,7 @@
       <c r="A13" s="1">
         <v>43800</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="8">
         <v>0.4824</v>
       </c>
       <c r="C13">
@@ -606,7 +625,7 @@
       <c r="A14" s="1">
         <v>43831</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="8">
         <v>0.53769999999999996</v>
       </c>
       <c r="C14">
@@ -622,7 +641,7 @@
       <c r="A15" s="1">
         <v>43862</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="8">
         <v>0.57240000000000002</v>
       </c>
       <c r="C15">
@@ -638,7 +657,7 @@
       <c r="A16" s="1">
         <v>43891</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="8">
         <v>0.60450000000000004</v>
       </c>
       <c r="C16">
@@ -654,7 +673,7 @@
       <c r="A17" s="1">
         <v>43922</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>0.65820000000000001</v>
       </c>
       <c r="C17">
@@ -670,7 +689,7 @@
       <c r="A18" s="1">
         <v>43952</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="8">
         <v>0.68259999999999998</v>
       </c>
       <c r="C18">
@@ -686,7 +705,7 @@
       <c r="A19" s="1">
         <v>43983</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>0.70860000000000001</v>
       </c>
       <c r="C19">
@@ -702,7 +721,7 @@
       <c r="A20" s="1">
         <v>44013</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>0.74719999999999998</v>
       </c>
       <c r="C20">
@@ -718,7 +737,7 @@
       <c r="A21" s="1">
         <v>44044</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>0.78080000000000005</v>
       </c>
       <c r="C21">
@@ -734,7 +753,7 @@
       <c r="A22" s="1">
         <v>44075</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>0.82909999999999995</v>
       </c>
       <c r="C22">
@@ -750,7 +769,7 @@
       <c r="A23" s="1">
         <v>44105</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>0.88070000000000004</v>
       </c>
       <c r="C23">
@@ -766,7 +785,7 @@
       <c r="A24" s="1">
         <v>44136</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>0.95169999999999999</v>
       </c>
       <c r="C24">
@@ -782,7 +801,7 @@
       <c r="A25" s="1">
         <v>44166</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>1.0130999999999999</v>
       </c>
       <c r="C25">
@@ -798,7 +817,7 @@
       <c r="A26" s="1">
         <v>44197</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="8">
         <v>1.0939000000000001</v>
       </c>
       <c r="C26">
@@ -814,7 +833,7 @@
       <c r="A27" s="1">
         <v>44228</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="8">
         <v>1.1785000000000001</v>
       </c>
       <c r="C27">
@@ -830,7 +849,7 @@
       <c r="A28" s="1">
         <v>44256</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="8">
         <v>1.2566999999999999</v>
       </c>
       <c r="C28">
@@ -846,7 +865,7 @@
       <c r="A29" s="1">
         <v>44287</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="8">
         <v>1.3652</v>
       </c>
       <c r="C29">
@@ -862,7 +881,7 @@
       <c r="A30" s="1">
         <v>44317</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="8">
         <v>1.4618</v>
       </c>
       <c r="C30">
@@ -878,7 +897,7 @@
       <c r="A31" s="1">
         <v>44348</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="8">
         <v>1.5431999999999999</v>
       </c>
       <c r="C31">
@@ -894,7 +913,7 @@
       <c r="A32" s="1">
         <v>44378</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="8">
         <v>1.6240000000000001</v>
       </c>
       <c r="C32">
@@ -916,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,4 +1049,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f t="shared" ref="D2:D8" si="0">CONCATENATE("X - X * ", B2)</f>
+        <v xml:space="preserve">X - X * </v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B3">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="C3">
+        <f>$C$2- C2*B3</f>
+        <v>92.23</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.0777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B4">
+        <v>0.1295</v>
+      </c>
+      <c r="C4">
+        <f>$C$2- C3*B4</f>
+        <v>88.056214999999995</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.1295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B5">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="C5">
+        <f>$C$2- C4*B5</f>
+        <v>84.537328646000006</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.1756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B6">
+        <v>0.2147</v>
+      </c>
+      <c r="C6">
+        <f>$C$2- C5*B6</f>
+        <v>81.849835539703804</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.2147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B7">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C8" si="1">$C$2- C6*B7</f>
+        <v>79.275621641347001</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.2532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B8">
+        <v>0.2908</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>76.946649226696294</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>X - X * 0.2908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>